--- a/testData/Hana_T93.xlsx
+++ b/testData/Hana_T93.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11913BD5-4BC3-4B61-84A7-1EB9092AC136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DEBE43-02F3-4D39-9A70-B649643D0526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>salesperson</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>searchandselectcompanyname</t>
+  </si>
+  <si>
+    <t>searchandselectShortcompanyname</t>
+  </si>
+  <si>
+    <t>Hana</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,9 +420,10 @@
     <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +433,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -436,6 +446,9 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
